--- a/temp/imputed-positive-baseline.xlsx
+++ b/temp/imputed-positive-baseline.xlsx
@@ -468,222 +468,222 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>历史住院次数</t>
+          <t>吸烟</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>吸烟</t>
+          <t>饮酒</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>饮酒</t>
+          <t>过敏史</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>过敏史</t>
+          <t>冠心病</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>冠心病</t>
+          <t>高血压</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>高血压</t>
+          <t>2型糖尿病</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2型糖尿病</t>
+          <t>慢阻肺</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>慢阻肺</t>
+          <t>肺部感染</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>肺部感染</t>
+          <t>肺炎</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>肺炎</t>
+          <t>肝/肾功能异常</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>肝/肾功能异常</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>心房颤动</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>心房颤动</t>
+          <t>心力衰竭</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>心力衰竭</t>
+          <t>气管插管</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>气管插管</t>
+          <t>输血</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>输血</t>
+          <t>用药总数</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>用药总数</t>
+          <t>抗菌药物数目</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>抗菌药物数目</t>
+          <t>利尿剂</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>利尿剂</t>
+          <t>抗心律失常药</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>抗心律失常药</t>
+          <t>胃肠用药</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>胃肠用药</t>
+          <t>支气管扩张药</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>支气管扩张药</t>
+          <t>体温</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>体温</t>
+          <t>呼吸R</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>呼吸R</t>
+          <t>心率HR</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>心率HR</t>
+          <t>舒张压</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>舒张压</t>
+          <t>收缩压</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>收缩压</t>
+          <t>尿酸(UA)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>尿酸(UA)</t>
+          <t>(AST/ALT)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>(AST/ALT)</t>
+          <t>尿素(Urea)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>尿素(Urea)</t>
+          <t>白蛋白(ALB)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>白蛋白(ALB)</t>
+          <t>总胆红素(TBIL)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>总胆红素(TBIL)</t>
+          <t>肌酐(Crea)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>肌酐(Crea)</t>
+          <t>碱性磷酸酶(ALP)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>碱性磷酸酶(ALP)</t>
+          <t>总蛋白(TP)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>总蛋白(TP)</t>
+          <t>钾离子(K+)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>钾离子(K+)</t>
+          <t>氯离子(Cl-)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>氯离子(Cl-)</t>
+          <t>钙离子(Ca2+)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>钙离子(Ca2+)</t>
+          <t>钠离子(Na+)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>钠离子(Na+)</t>
+          <t>白细胞计数(WBC#)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>白细胞计数(WBC#)</t>
+          <t>血小板计数(PLT#)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>血小板计数(PLT#)</t>
+          <t>红细胞比容(Hct)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>红细胞比容(Hct)</t>
+          <t>红细胞计数(RBC#)</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>红细胞计数(RBC#)</t>
+          <t>血红蛋白(Hb)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>血红蛋白(Hb)</t>
+          <t>不良反应</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -715,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -754,13 +754,13 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -769,73 +769,73 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>37.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="n">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="AD2" t="n">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="AE2" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="AF2" t="n">
-        <v>98</v>
+        <v>944</v>
       </c>
       <c r="AG2" t="n">
-        <v>944</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.86</v>
+        <v>13.09</v>
       </c>
       <c r="AI2" t="n">
-        <v>13.09</v>
+        <v>26.7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26.7</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>103.8</v>
       </c>
       <c r="AL2" t="n">
-        <v>103.8</v>
+        <v>111</v>
       </c>
       <c r="AM2" t="n">
-        <v>111</v>
+        <v>57.96</v>
       </c>
       <c r="AN2" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="AO2" t="n">
         <v>3.5</v>
       </c>
-      <c r="AP2" s="2" t="n">
-        <v>103.1400607484066</v>
+      <c r="AO2" s="2" t="n">
+        <v>103.1743292639792</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.29</v>
+        <v>137</v>
       </c>
       <c r="AR2" t="n">
-        <v>137</v>
+        <v>16.64</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.64</v>
+        <v>358</v>
       </c>
       <c r="AT2" t="n">
-        <v>358</v>
+        <v>37.8</v>
       </c>
       <c r="AU2" t="n">
-        <v>37.8</v>
+        <v>4.14</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.14</v>
+        <v>123</v>
       </c>
       <c r="AW2" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -920,73 +920,73 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.2</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="AD3" t="n">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AF3" t="n">
-        <v>166</v>
+        <v>137.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>137.1</v>
+        <v>1.34</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.34</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.5</v>
+        <v>36.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36.5</v>
+        <v>18.7</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.7</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AM3" t="n">
-        <v>89</v>
+        <v>61.6</v>
       </c>
       <c r="AN3" t="n">
-        <v>61.6</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.1</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AP3" t="n">
-        <v>97.09999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.06</v>
+        <v>135</v>
       </c>
       <c r="AR3" t="n">
-        <v>135</v>
+        <v>16.52</v>
       </c>
       <c r="AS3" t="n">
-        <v>16.52</v>
+        <v>118</v>
       </c>
       <c r="AT3" t="n">
-        <v>118</v>
+        <v>37.9</v>
       </c>
       <c r="AU3" t="n">
-        <v>37.9</v>
+        <v>3.78</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.78</v>
+        <v>128</v>
       </c>
       <c r="AW3" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1008,28 +1008,28 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -1053,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>1</v>
@@ -1071,73 +1071,73 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>36.5</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="n">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="AG4" t="n">
-        <v>282</v>
+        <v>4.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>29.9</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29.9</v>
+        <v>12.8</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.8</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="n">
-        <v>82</v>
+        <v>60.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>60.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="AP4" t="n">
-        <v>113</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.91</v>
+        <v>136</v>
       </c>
       <c r="AR4" t="n">
-        <v>136</v>
+        <v>6.1</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.1</v>
+        <v>246</v>
       </c>
       <c r="AT4" t="n">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="AU4" t="n">
-        <v>38</v>
+        <v>4.02</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.02</v>
+        <v>127</v>
       </c>
       <c r="AW4" t="n">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1158,13 +1158,13 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
@@ -1177,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -1204,91 +1204,91 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="AD5" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="AF5" t="n">
-        <v>116</v>
+        <v>523</v>
       </c>
       <c r="AG5" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>11.31</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.31</v>
+        <v>30.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30.2</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>62.1</v>
       </c>
       <c r="AL5" t="n">
-        <v>62.1</v>
+        <v>124</v>
       </c>
       <c r="AM5" t="n">
-        <v>124</v>
+        <v>57.99</v>
       </c>
       <c r="AN5" t="n">
-        <v>57.99</v>
+        <v>4.67</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.67</v>
+        <v>97.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>97.5</v>
+        <v>2.23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.23</v>
+        <v>135.81</v>
       </c>
       <c r="AR5" t="n">
-        <v>135.81</v>
+        <v>4.76</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.76</v>
+        <v>102</v>
       </c>
       <c r="AT5" t="n">
-        <v>102</v>
+        <v>60.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>60.2</v>
+        <v>5.95</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.95</v>
+        <v>180</v>
       </c>
       <c r="AW5" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1310,136 +1310,136 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>38.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>38.2</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="AD6" t="n">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="AF6" t="n">
-        <v>143</v>
+        <v>515.1</v>
       </c>
       <c r="AG6" t="n">
-        <v>515.1</v>
+        <v>0.95</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.460000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>33.6</v>
+        <v>13.1</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.1</v>
+        <v>136.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>136.5</v>
+        <v>52</v>
       </c>
       <c r="AM6" t="n">
-        <v>52</v>
+        <v>60.4</v>
       </c>
       <c r="AN6" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="AO6" t="n">
         <v>4</v>
       </c>
+      <c r="AO6" s="2" t="n">
+        <v>101.95370606424</v>
+      </c>
       <c r="AP6" s="2" t="n">
-        <v>101.9447077250532</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>2.129126203788291</v>
+        <v>2.129364178818468</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>138</v>
       </c>
       <c r="AR6" t="n">
-        <v>138</v>
+        <v>2.68</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.68</v>
+        <v>133</v>
       </c>
       <c r="AT6" t="n">
-        <v>133</v>
+        <v>36.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>36.1</v>
+        <v>3.94</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.94</v>
+        <v>116</v>
       </c>
       <c r="AW6" t="n">
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -1488,16 +1488,16 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1506,91 +1506,91 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>36.6</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="AD7" t="n">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="AE7" t="n">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AF7" t="n">
-        <v>128</v>
+        <v>557.7</v>
       </c>
       <c r="AG7" t="n">
-        <v>557.7</v>
+        <v>0.85</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.85</v>
+        <v>10.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.9</v>
+        <v>41.2</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41.2</v>
+        <v>20.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>20.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AL7" t="n">
-        <v>90.09999999999999</v>
+        <v>164.2</v>
       </c>
       <c r="AM7" t="n">
-        <v>164.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="AN7" t="n">
-        <v>68.09999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.7</v>
+        <v>97.8</v>
       </c>
       <c r="AP7" t="n">
-        <v>97.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.13</v>
+        <v>142.3</v>
       </c>
       <c r="AR7" t="n">
-        <v>142.3</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.380000000000001</v>
+        <v>349</v>
       </c>
       <c r="AT7" t="n">
-        <v>349</v>
+        <v>40.9</v>
       </c>
       <c r="AU7" t="n">
-        <v>40.9</v>
+        <v>4.47</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.47</v>
+        <v>131</v>
       </c>
       <c r="AW7" t="n">
-        <v>131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1630,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1657,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
@@ -1675,73 +1675,73 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>36.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>36.8</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="AD8" t="n">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AF8" t="n">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>81</v>
+        <v>0.34</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.34</v>
+        <v>6.4</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.4</v>
+        <v>27.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27.7</v>
+        <v>22.8</v>
       </c>
       <c r="AK8" t="n">
-        <v>22.8</v>
+        <v>37</v>
       </c>
       <c r="AL8" t="n">
-        <v>37</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AM8" t="n">
-        <v>98.40000000000001</v>
+        <v>48.7</v>
       </c>
       <c r="AN8" t="n">
-        <v>48.7</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.5</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="n">
-        <v>88</v>
+        <v>1.87</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.87</v>
+        <v>136</v>
       </c>
       <c r="AR8" t="n">
-        <v>136</v>
+        <v>8.16</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.16</v>
+        <v>118</v>
       </c>
       <c r="AT8" t="n">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AU8" t="n">
-        <v>45</v>
+        <v>4.65</v>
       </c>
       <c r="AV8" t="n">
-        <v>4.65</v>
+        <v>147</v>
       </c>
       <c r="AW8" t="n">
-        <v>147</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1775,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1796,28 +1796,28 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1826,73 +1826,73 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>279</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>122</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>404</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AV9" t="n">
         <v>112</v>
       </c>
-      <c r="AE9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>279</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>122</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>109.7</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>404</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>3.82</v>
-      </c>
       <c r="AW9" t="n">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1932,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1959,91 +1959,91 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>37.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>37.7</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="AD10" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AE10" t="n">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="AF10" t="n">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="AG10" t="n">
-        <v>354</v>
+        <v>0.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.800000000000001</v>
+        <v>47.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>47.1</v>
+        <v>22.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>22.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="AL10" t="n">
-        <v>77.59999999999999</v>
+        <v>136</v>
       </c>
       <c r="AM10" t="n">
-        <v>136</v>
+        <v>80.3</v>
       </c>
       <c r="AN10" t="n">
-        <v>80.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.2</v>
+        <v>98.2</v>
       </c>
       <c r="AP10" t="n">
-        <v>98.2</v>
+        <v>2.47</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.47</v>
+        <v>140.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>140.3</v>
+        <v>9.1</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.1</v>
+        <v>150</v>
       </c>
       <c r="AT10" t="n">
-        <v>150</v>
+        <v>51.7</v>
       </c>
       <c r="AU10" t="n">
-        <v>51.7</v>
+        <v>5.27</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.27</v>
+        <v>162</v>
       </c>
       <c r="AW10" t="n">
-        <v>162</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2083,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -2110,91 +2110,91 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="AD11" t="n">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="AE11" t="n">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="n">
-        <v>102</v>
+        <v>449.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>449.6</v>
+        <v>1.29</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.199999999999999</v>
+        <v>46.3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>46.3</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="AL11" t="n">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="AM11" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="n">
-        <v>78</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AP11" t="n">
-        <v>90.90000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.38</v>
+        <v>134.2</v>
       </c>
       <c r="AR11" t="n">
-        <v>134.2</v>
+        <v>7.11</v>
       </c>
       <c r="AS11" t="n">
-        <v>7.11</v>
+        <v>128</v>
       </c>
       <c r="AT11" t="n">
-        <v>128</v>
+        <v>42.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>42.1</v>
+        <v>4.18</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.18</v>
+        <v>139</v>
       </c>
       <c r="AW11" t="n">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2222,25 +2222,25 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2255,97 +2255,97 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>98</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>165</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>232</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>111</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="AN12" t="n">
         <v>3</v>
       </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>98</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>165</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>232</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>111</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>63.6</v>
-      </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="AP12" t="n">
-        <v>110</v>
+        <v>2.46</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.46</v>
+        <v>153</v>
       </c>
       <c r="AR12" t="n">
-        <v>153</v>
+        <v>7.7</v>
       </c>
       <c r="AS12" t="n">
-        <v>7.7</v>
+        <v>248</v>
       </c>
       <c r="AT12" t="n">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="AU12" t="n">
-        <v>46</v>
+        <v>5.13</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.13</v>
+        <v>145</v>
       </c>
       <c r="AW12" t="n">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2400,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2412,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -2430,73 +2430,73 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>36.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>36.3</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AD13" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF13" t="n">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="AG13" t="n">
-        <v>271</v>
+        <v>3.17</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.38</v>
+        <v>29.4</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.300000000000001</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="n">
-        <v>76</v>
+        <v>57.1</v>
       </c>
       <c r="AN13" t="n">
-        <v>57.1</v>
+        <v>2.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.5</v>
+        <v>107</v>
       </c>
       <c r="AP13" t="n">
-        <v>107</v>
+        <v>2.14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.14</v>
+        <v>146</v>
       </c>
       <c r="AR13" t="n">
-        <v>146</v>
+        <v>3.7</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.7</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AU13" t="n">
-        <v>36</v>
+        <v>3.74</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.74</v>
+        <v>115</v>
       </c>
       <c r="AW13" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2527,22 +2527,22 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -2551,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2563,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>2</v>
@@ -2578,76 +2578,76 @@
         <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>36.2</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD14" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="AE14" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="AG14" t="n">
-        <v>268</v>
+        <v>0.89</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.89</v>
+        <v>6.51</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.51</v>
+        <v>28.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28.1</v>
+        <v>10.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AL14" t="n">
         <v>79.8</v>
       </c>
+      <c r="AL14" s="2" t="n">
+        <v>103.796875788289</v>
+      </c>
       <c r="AM14" s="2" t="n">
-        <v>103.7939891624552</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>56.44553733249197</v>
+        <v>54.74643378471163</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.21</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.21</v>
+        <v>103.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>103.7</v>
+        <v>2.08</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.08</v>
+        <v>134.9</v>
       </c>
       <c r="AR14" t="n">
-        <v>134.9</v>
+        <v>7.56</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.56</v>
+        <v>246</v>
       </c>
       <c r="AT14" t="n">
-        <v>246</v>
+        <v>34.9</v>
       </c>
       <c r="AU14" t="n">
-        <v>34.9</v>
+        <v>3.78</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.78</v>
+        <v>110</v>
       </c>
       <c r="AW14" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2681,19 +2681,19 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -2714,91 +2714,91 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="AD15" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AE15" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="n">
-        <v>129</v>
+        <v>376.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>376.2</v>
+        <v>1.76</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.76</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.220000000000001</v>
+        <v>40.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.4</v>
+        <v>85</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>76.8</v>
       </c>
       <c r="AM15" t="n">
-        <v>76.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AN15" t="n">
-        <v>66.90000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.7</v>
+        <v>103.2</v>
       </c>
       <c r="AP15" t="n">
-        <v>103.2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AR15" t="n">
         <v>137</v>
       </c>
+      <c r="AR15" s="2" t="n">
+        <v>9.702276335741466</v>
+      </c>
       <c r="AS15" s="2" t="n">
-        <v>9.703174467324679</v>
+        <v>212.3682284011673</v>
       </c>
       <c r="AT15" s="2" t="n">
-        <v>212.3680551860732</v>
+        <v>41.64173026506095</v>
       </c>
       <c r="AU15" s="2" t="n">
-        <v>41.81497564902126</v>
+        <v>4.4424919988232</v>
       </c>
       <c r="AV15" s="2" t="n">
-        <v>4.458848199925235</v>
-      </c>
-      <c r="AW15" s="2" t="n">
-        <v>135.0997318154708</v>
+        <v>134.5485421344058</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2829,28 +2829,28 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -2865,16 +2865,16 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
@@ -2883,73 +2883,73 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>36.5</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AE16" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AF16" t="n">
-        <v>104</v>
+        <v>224.7</v>
       </c>
       <c r="AG16" t="n">
-        <v>224.7</v>
+        <v>1.43</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.43</v>
+        <v>14.02</v>
       </c>
       <c r="AI16" t="n">
-        <v>14.02</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>36.84</v>
       </c>
       <c r="AK16" t="n">
-        <v>36.84</v>
+        <v>168.4</v>
       </c>
       <c r="AL16" t="n">
-        <v>168.4</v>
+        <v>125</v>
       </c>
       <c r="AM16" t="n">
-        <v>125</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AN16" t="n">
-        <v>68.40000000000001</v>
+        <v>4.36</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.36</v>
+        <v>93.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>93.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.8</v>
+        <v>133.2</v>
       </c>
       <c r="AR16" t="n">
-        <v>133.2</v>
+        <v>16.17</v>
       </c>
       <c r="AS16" t="n">
-        <v>16.17</v>
+        <v>355</v>
       </c>
       <c r="AT16" t="n">
-        <v>355</v>
+        <v>43.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>43.6</v>
+        <v>4.58</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.58</v>
+        <v>139</v>
       </c>
       <c r="AW16" t="n">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2977,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -3034,73 +3034,73 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="AD17" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="AE17" t="n">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="n">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="AG17" t="n">
-        <v>362</v>
+        <v>1.27</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.27</v>
+        <v>7.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.3</v>
+        <v>38.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK17" t="n">
-        <v>7.4</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="AM17" t="n">
-        <v>143</v>
+        <v>62.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>62.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.5</v>
+        <v>98</v>
       </c>
       <c r="AP17" t="n">
-        <v>98</v>
+        <v>2.19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.19</v>
+        <v>135</v>
       </c>
       <c r="AR17" t="n">
-        <v>135</v>
+        <v>11.3</v>
       </c>
       <c r="AS17" t="n">
-        <v>11.3</v>
+        <v>131</v>
       </c>
       <c r="AT17" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AU17" t="n">
-        <v>41</v>
+        <v>4.26</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.26</v>
+        <v>132</v>
       </c>
       <c r="AW17" t="n">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3131,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -3149,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -3167,91 +3167,91 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>36.2</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="AD18" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="n">
-        <v>131</v>
+        <v>831</v>
       </c>
       <c r="AG18" t="n">
-        <v>831</v>
+        <v>1.58</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.58</v>
+        <v>51.23</v>
       </c>
       <c r="AI18" t="n">
-        <v>51.23</v>
+        <v>30.3</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30.3</v>
+        <v>15.1</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.1</v>
+        <v>154.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>154.5</v>
+        <v>354</v>
       </c>
       <c r="AM18" t="n">
-        <v>354</v>
+        <v>54.05</v>
       </c>
       <c r="AN18" t="n">
-        <v>54.05</v>
+        <v>5.13</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.13</v>
+        <v>107.7</v>
       </c>
       <c r="AP18" t="n">
-        <v>107.7</v>
+        <v>2.3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.3</v>
+        <v>139</v>
       </c>
       <c r="AR18" t="n">
-        <v>139</v>
+        <v>7.24</v>
       </c>
       <c r="AS18" t="n">
-        <v>7.24</v>
+        <v>168</v>
       </c>
       <c r="AT18" t="n">
-        <v>168</v>
+        <v>23.7</v>
       </c>
       <c r="AU18" t="n">
-        <v>23.7</v>
+        <v>2.57</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.57</v>
+        <v>79</v>
       </c>
       <c r="AW18" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -3306,10 +3306,10 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -3318,16 +3318,16 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>1</v>
@@ -3336,73 +3336,73 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>36.9</v>
+        <v>22</v>
       </c>
       <c r="AC19" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>130</v>
+        <v>576.2</v>
       </c>
       <c r="AG19" t="n">
-        <v>576.2</v>
+        <v>1.58</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.58</v>
+        <v>11.1</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.1</v>
+        <v>42.2</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42.2</v>
+        <v>30.1</v>
       </c>
       <c r="AK19" t="n">
-        <v>30.1</v>
+        <v>125.6</v>
       </c>
       <c r="AL19" t="n">
-        <v>125.6</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AM19" t="n">
-        <v>90.90000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AN19" t="n">
-        <v>65.40000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AO19" t="n">
-        <v>3.7</v>
+        <v>100.8</v>
       </c>
       <c r="AP19" t="n">
-        <v>100.8</v>
+        <v>2.26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.26</v>
+        <v>137</v>
       </c>
       <c r="AR19" t="n">
-        <v>137</v>
+        <v>4.88</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.88</v>
+        <v>97</v>
       </c>
       <c r="AT19" t="n">
-        <v>97</v>
+        <v>34.8</v>
       </c>
       <c r="AU19" t="n">
-        <v>34.8</v>
+        <v>3.65</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.65</v>
+        <v>112</v>
       </c>
       <c r="AW19" t="n">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3442,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -3469,91 +3469,91 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
         <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>107</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>128</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>230</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>92</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>102</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>136</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>217</v>
+      </c>
+      <c r="AT20" t="n">
         <v>39</v>
       </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>107</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>77</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>128</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>230</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>92</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>102</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>136</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>217</v>
-      </c>
       <c r="AU20" t="n">
-        <v>39</v>
+        <v>4.25</v>
       </c>
       <c r="AV20" t="n">
-        <v>4.25</v>
+        <v>127</v>
       </c>
       <c r="AW20" t="n">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3577,17 +3577,17 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="G21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3596,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -3611,25 +3611,25 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -3638,73 +3638,73 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>36.6</v>
+        <v>24</v>
       </c>
       <c r="AC21" t="n">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AE21" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="n">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="AG21" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI21" t="n">
         <v>8.9</v>
       </c>
+      <c r="AI21" s="2" t="n">
+        <v>32.73917709490328</v>
+      </c>
       <c r="AJ21" s="2" t="n">
-        <v>32.61461826820855</v>
-      </c>
-      <c r="AK21" s="2" t="n">
-        <v>18.5965718384304</v>
+        <v>18.59760467184218</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>35</v>
       </c>
       <c r="AL21" t="n">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="AM21" t="n">
-        <v>271</v>
+        <v>58.6</v>
       </c>
       <c r="AN21" t="n">
-        <v>58.6</v>
+        <v>3.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.8</v>
+        <v>104</v>
       </c>
       <c r="AP21" t="n">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="AR21" t="n">
-        <v>137</v>
+        <v>11.8</v>
       </c>
       <c r="AS21" t="n">
-        <v>11.8</v>
+        <v>285</v>
       </c>
       <c r="AT21" t="n">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="AU21" t="n">
-        <v>43</v>
+        <v>4.74</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.74</v>
+        <v>133</v>
       </c>
       <c r="AW21" t="n">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3735,19 +3735,19 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -3762,100 +3762,100 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>36.9</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AD22" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="n">
+        <v>165</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>634</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
         <v>100</v>
       </c>
-      <c r="AF22" t="n">
-        <v>165</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>634</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>17</v>
-      </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AM22" t="n">
-        <v>107</v>
-      </c>
-      <c r="AN22" t="n">
         <v>69</v>
       </c>
+      <c r="AN22" s="2" t="n">
+        <v>3.998348331120685</v>
+      </c>
       <c r="AO22" s="2" t="n">
-        <v>4.00042174258017</v>
+        <v>102.2562853902946</v>
       </c>
       <c r="AP22" s="2" t="n">
-        <v>102.2409150075245</v>
+        <v>2.223942186684898</v>
       </c>
       <c r="AQ22" s="2" t="n">
-        <v>2.223296591467188</v>
-      </c>
-      <c r="AR22" s="2" t="n">
-        <v>138.280106927591</v>
+        <v>138.280024777642</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>20.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>20.1</v>
+        <v>248</v>
       </c>
       <c r="AT22" t="n">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="AU22" t="n">
-        <v>39</v>
+        <v>4.24</v>
       </c>
       <c r="AV22" t="n">
-        <v>4.24</v>
+        <v>116</v>
       </c>
       <c r="AW22" t="n">
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3886,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3898,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -3916,10 +3916,10 @@
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
@@ -3940,73 +3940,73 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="n">
-        <v>114</v>
+        <v>336</v>
       </c>
       <c r="AG23" t="n">
-        <v>336</v>
+        <v>7.03</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.03</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>27.8</v>
-      </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="AM23" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AN23" t="n">
-        <v>56</v>
+        <v>3.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.6</v>
+        <v>109</v>
       </c>
       <c r="AP23" t="n">
-        <v>109</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.63</v>
+        <v>139</v>
       </c>
       <c r="AR23" t="n">
-        <v>139</v>
+        <v>10.2</v>
       </c>
       <c r="AS23" t="n">
-        <v>10.2</v>
+        <v>158</v>
       </c>
       <c r="AT23" t="n">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="AU23" t="n">
-        <v>39</v>
+        <v>4.73</v>
       </c>
       <c r="AV23" t="n">
-        <v>4.73</v>
+        <v>127</v>
       </c>
       <c r="AW23" t="n">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4028,10 +4028,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -4046,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -4073,91 +4073,91 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>36.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>36.7</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AD24" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AE24" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="AF24" t="n">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="AG24" t="n">
-        <v>333</v>
+        <v>1.06</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.06</v>
+        <v>6.5</v>
       </c>
       <c r="AI24" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>68</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>105</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>139</v>
+      </c>
+      <c r="AR24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>68</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>105</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>139</v>
-      </c>
       <c r="AS24" t="n">
-        <v>6.5</v>
+        <v>226</v>
       </c>
       <c r="AT24" t="n">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="AU24" t="n">
-        <v>38</v>
+        <v>4.03</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.03</v>
+        <v>115</v>
       </c>
       <c r="AW24" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4188,34 +4188,34 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>2</v>
@@ -4224,91 +4224,91 @@
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="AD25" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="n">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="AF25" t="n">
-        <v>118</v>
+        <v>719.8</v>
       </c>
       <c r="AG25" t="n">
-        <v>719.8</v>
+        <v>2.58</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.58</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AI25" t="n">
-        <v>9.369999999999999</v>
+        <v>31.3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>31.3</v>
+        <v>3.8</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.8</v>
+        <v>167.1</v>
       </c>
       <c r="AL25" t="n">
-        <v>167.1</v>
+        <v>116.2</v>
       </c>
       <c r="AM25" t="n">
-        <v>116.2</v>
+        <v>61.7</v>
       </c>
       <c r="AN25" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="AO25" t="n">
         <v>4.4</v>
       </c>
-      <c r="AP25" s="2" t="n">
-        <v>102.4863443847484</v>
+      <c r="AO25" s="2" t="n">
+        <v>102.5064317724079</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.86</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.86</v>
+        <v>140</v>
       </c>
       <c r="AR25" t="n">
-        <v>140</v>
+        <v>14.91</v>
       </c>
       <c r="AS25" t="n">
-        <v>14.91</v>
+        <v>209</v>
       </c>
       <c r="AT25" t="n">
-        <v>209</v>
+        <v>33.7</v>
       </c>
       <c r="AU25" t="n">
-        <v>33.7</v>
+        <v>4.99</v>
       </c>
       <c r="AV25" t="n">
-        <v>4.99</v>
+        <v>104</v>
       </c>
       <c r="AW25" t="n">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4333,28 +4333,28 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -4375,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -4387,79 +4387,79 @@
         <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>36.6</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="AD26" t="n">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="n">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="n">
         <v>102</v>
       </c>
-      <c r="AG26" s="2" t="n">
-        <v>404.9207657744215</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AF26" s="2" t="n">
+        <v>405.1253246613718</v>
+      </c>
+      <c r="AG26" t="n">
         <v>0.78</v>
       </c>
-      <c r="AI26" s="2" t="n">
-        <v>8.770855977265981</v>
+      <c r="AH26" s="2" t="n">
+        <v>8.77195185828273</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40.4</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40.4</v>
+        <v>26.2</v>
       </c>
       <c r="AK26" t="n">
-        <v>26.2</v>
+        <v>108</v>
       </c>
       <c r="AL26" t="n">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="AM26" t="n">
-        <v>69</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="AN26" t="n">
-        <v>69.90000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>3.7</v>
+        <v>109</v>
       </c>
       <c r="AP26" t="n">
-        <v>109</v>
+        <v>2.02</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.02</v>
+        <v>141</v>
       </c>
       <c r="AR26" t="n">
-        <v>141</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS26" t="n">
-        <v>8.800000000000001</v>
+        <v>204</v>
       </c>
       <c r="AT26" t="n">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="AU26" t="n">
-        <v>35</v>
+        <v>3.9</v>
       </c>
       <c r="AV26" t="n">
-        <v>3.9</v>
+        <v>105</v>
       </c>
       <c r="AW26" t="n">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -4496,13 +4496,13 @@
         <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -4526,91 +4526,91 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>36.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>36.5</v>
+        <v>22</v>
       </c>
       <c r="AC27" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AD27" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="AE27" t="n">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="n">
-        <v>170</v>
+        <v>541</v>
       </c>
       <c r="AG27" t="n">
-        <v>541</v>
+        <v>1.55</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.55</v>
+        <v>8.9</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.9</v>
+        <v>30.3</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.4</v>
+        <v>191</v>
       </c>
       <c r="AL27" t="n">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="AM27" t="n">
-        <v>53</v>
+        <v>54.5</v>
       </c>
       <c r="AN27" t="n">
-        <v>54.5</v>
+        <v>3.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AP27" t="n">
         <v>105</v>
       </c>
-      <c r="AQ27" s="2" t="n">
-        <v>2.11482697265666</v>
+      <c r="AP27" s="2" t="n">
+        <v>2.114660152688958</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>138</v>
       </c>
       <c r="AR27" t="n">
-        <v>138</v>
+        <v>14.8</v>
       </c>
       <c r="AS27" t="n">
-        <v>14.8</v>
+        <v>187</v>
       </c>
       <c r="AT27" t="n">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="AU27" t="n">
-        <v>40</v>
+        <v>5.48</v>
       </c>
       <c r="AV27" t="n">
-        <v>5.48</v>
+        <v>128</v>
       </c>
       <c r="AW27" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -4650,13 +4650,13 @@
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -4677,91 +4677,91 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
         <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB28" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AD28" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AE28" t="n">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="AF28" t="n">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="AG28" t="n">
-        <v>348</v>
+        <v>1.31</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.31</v>
+        <v>10.44</v>
       </c>
       <c r="AI28" t="n">
-        <v>10.44</v>
+        <v>34.4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34.4</v>
+        <v>12.3</v>
       </c>
       <c r="AK28" t="n">
-        <v>12.3</v>
+        <v>121</v>
       </c>
       <c r="AL28" t="n">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="AM28" t="n">
-        <v>51</v>
+        <v>65.3</v>
       </c>
       <c r="AN28" t="n">
-        <v>65.3</v>
+        <v>3.9</v>
       </c>
       <c r="AO28" t="n">
-        <v>3.9</v>
+        <v>106</v>
       </c>
       <c r="AP28" t="n">
-        <v>106</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.11</v>
+        <v>142</v>
       </c>
       <c r="AR28" t="n">
-        <v>142</v>
+        <v>11.9</v>
       </c>
       <c r="AS28" t="n">
-        <v>11.9</v>
+        <v>166</v>
       </c>
       <c r="AT28" t="n">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="AU28" t="n">
-        <v>35</v>
+        <v>3.84</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.84</v>
+        <v>119</v>
       </c>
       <c r="AW28" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4783,16 +4783,16 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
@@ -4801,13 +4801,13 @@
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -4816,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -4828,16 +4828,16 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>1</v>
@@ -4846,73 +4846,73 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>36.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>36.4</v>
+        <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="AD29" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AF29" t="n">
+        <v>591</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK29" t="n">
         <v>107</v>
       </c>
-      <c r="AG29" t="n">
-        <v>591</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>30</v>
-      </c>
       <c r="AL29" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="AM29" t="n">
-        <v>69</v>
+        <v>42.3</v>
       </c>
       <c r="AN29" t="n">
-        <v>42.3</v>
+        <v>3.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.7</v>
+        <v>101</v>
       </c>
       <c r="AP29" t="n">
-        <v>101</v>
+        <v>1.87</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.87</v>
+        <v>128</v>
       </c>
       <c r="AR29" t="n">
-        <v>128</v>
+        <v>10.3</v>
       </c>
       <c r="AS29" t="n">
-        <v>10.3</v>
+        <v>202</v>
       </c>
       <c r="AT29" t="n">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="AU29" t="n">
-        <v>47</v>
+        <v>5.1</v>
       </c>
       <c r="AV29" t="n">
-        <v>5.1</v>
+        <v>159</v>
       </c>
       <c r="AW29" t="n">
-        <v>159</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4934,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -4946,16 +4946,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -4964,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -4979,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -4991,79 +4991,79 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>36.5</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AE30" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AG30" t="n">
-        <v>140</v>
+        <v>1.28</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.28</v>
+        <v>2.43</v>
       </c>
       <c r="AI30" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>226</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>86</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>311</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU30" t="n">
         <v>2.43</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>226</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>86</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>311</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>20</v>
-      </c>
       <c r="AV30" t="n">
-        <v>2.43</v>
+        <v>62</v>
       </c>
       <c r="AW30" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -5084,35 +5084,35 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>10</v>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -5124,97 +5124,97 @@
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>36.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>36.2</v>
+        <v>28</v>
       </c>
       <c r="AC31" t="n">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="AD31" t="n">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="n">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AF31" t="n">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="AG31" t="n">
-        <v>391</v>
+        <v>1.77</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.77</v>
+        <v>6.59</v>
       </c>
       <c r="AI31" t="n">
-        <v>6.59</v>
+        <v>41.9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41.9</v>
+        <v>20.8</v>
       </c>
       <c r="AK31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AL31" t="n">
         <v>119.5</v>
       </c>
-      <c r="AM31" s="2" t="n">
-        <v>106.8322994477254</v>
+      <c r="AL31" s="2" t="n">
+        <v>106.8378115314168</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>81.2</v>
       </c>
       <c r="AN31" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="AO31" t="n">
         <v>3.2</v>
       </c>
-      <c r="AP31" s="2" t="n">
-        <v>101.5439469064916</v>
+      <c r="AO31" s="2" t="n">
+        <v>101.5440698241794</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.99</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.99</v>
+        <v>137</v>
       </c>
       <c r="AR31" t="n">
-        <v>137</v>
+        <v>15.32</v>
       </c>
       <c r="AS31" t="n">
-        <v>15.32</v>
+        <v>316</v>
       </c>
       <c r="AT31" t="n">
-        <v>316</v>
+        <v>38.8</v>
       </c>
       <c r="AU31" t="n">
-        <v>38.8</v>
+        <v>4.28</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.28</v>
+        <v>125</v>
       </c>
       <c r="AW31" t="n">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
@@ -5257,13 +5257,13 @@
         <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5272,25 +5272,25 @@
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
         <v>1</v>
@@ -5299,73 +5299,73 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>36.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>36.7</v>
+        <v>25</v>
       </c>
       <c r="AC32" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AD32" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="AE32" t="n">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="n">
-        <v>148</v>
+        <v>448.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>448.8</v>
+        <v>1.41</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.41</v>
+        <v>12.44</v>
       </c>
       <c r="AI32" t="n">
-        <v>12.44</v>
+        <v>33.8</v>
       </c>
       <c r="AJ32" t="n">
-        <v>33.8</v>
+        <v>16</v>
       </c>
       <c r="AK32" t="n">
-        <v>16</v>
+        <v>65.3</v>
       </c>
       <c r="AL32" t="n">
-        <v>65.3</v>
+        <v>197</v>
       </c>
       <c r="AM32" t="n">
-        <v>197</v>
+        <v>61.6</v>
       </c>
       <c r="AN32" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="AO32" t="n">
         <v>3.2</v>
       </c>
-      <c r="AP32" s="2" t="n">
-        <v>101.5878194667284</v>
+      <c r="AO32" s="2" t="n">
+        <v>101.5883703538157</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.73</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.73</v>
+        <v>138</v>
       </c>
       <c r="AR32" t="n">
-        <v>138</v>
+        <v>13.71</v>
       </c>
       <c r="AS32" t="n">
-        <v>13.71</v>
+        <v>193</v>
       </c>
       <c r="AT32" t="n">
-        <v>193</v>
+        <v>55.6</v>
       </c>
       <c r="AU32" t="n">
-        <v>55.6</v>
+        <v>5.6</v>
       </c>
       <c r="AV32" t="n">
-        <v>5.6</v>
+        <v>166</v>
       </c>
       <c r="AW32" t="n">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -5396,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -5432,16 +5432,16 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>1</v>
@@ -5450,73 +5450,73 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB33" t="n">
-        <v>36.6</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="n">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="AF33" t="n">
-        <v>127</v>
+        <v>306.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>306.5</v>
+        <v>0.96</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.96</v>
+        <v>4.57</v>
       </c>
       <c r="AI33" t="n">
-        <v>4.57</v>
+        <v>41.7</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41.7</v>
+        <v>12.03</v>
       </c>
       <c r="AK33" t="n">
-        <v>12.03</v>
+        <v>63.4</v>
       </c>
       <c r="AL33" t="n">
-        <v>63.4</v>
+        <v>98.8</v>
       </c>
       <c r="AM33" t="n">
-        <v>98.8</v>
+        <v>70.19</v>
       </c>
       <c r="AN33" t="n">
-        <v>70.19</v>
+        <v>3.22</v>
       </c>
       <c r="AO33" t="n">
-        <v>3.22</v>
+        <v>103.6</v>
       </c>
       <c r="AP33" t="n">
-        <v>103.6</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.25</v>
+        <v>141.2</v>
       </c>
       <c r="AR33" t="n">
-        <v>141.2</v>
+        <v>8.66</v>
       </c>
       <c r="AS33" t="n">
-        <v>8.66</v>
+        <v>366</v>
       </c>
       <c r="AT33" t="n">
-        <v>366</v>
+        <v>43.4</v>
       </c>
       <c r="AU33" t="n">
-        <v>43.4</v>
+        <v>4.79</v>
       </c>
       <c r="AV33" t="n">
-        <v>4.79</v>
+        <v>146</v>
       </c>
       <c r="AW33" t="n">
-        <v>146</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -5583,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>1</v>
@@ -5601,73 +5601,73 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AF34" t="n">
-        <v>107</v>
+        <v>246.8</v>
       </c>
       <c r="AG34" t="n">
-        <v>246.8</v>
+        <v>1.25</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.25</v>
+        <v>2.93</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.93</v>
+        <v>40.3</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40.3</v>
+        <v>8.6</v>
       </c>
       <c r="AK34" t="n">
-        <v>8.6</v>
+        <v>62.2</v>
       </c>
       <c r="AL34" t="n">
-        <v>62.2</v>
+        <v>68</v>
       </c>
       <c r="AM34" t="n">
-        <v>68</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AN34" t="n">
-        <v>66.90000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>3.2</v>
+        <v>103.1</v>
       </c>
       <c r="AP34" t="n">
-        <v>103.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.18</v>
+        <v>139.8</v>
       </c>
       <c r="AR34" t="n">
-        <v>139.8</v>
+        <v>2.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.5</v>
+        <v>228</v>
       </c>
       <c r="AT34" t="n">
-        <v>228</v>
+        <v>36.8</v>
       </c>
       <c r="AU34" t="n">
-        <v>36.8</v>
+        <v>3.89</v>
       </c>
       <c r="AV34" t="n">
-        <v>3.89</v>
+        <v>125</v>
       </c>
       <c r="AW34" t="n">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -5689,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -5734,91 +5734,91 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
         <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB35" t="n">
-        <v>36.6</v>
+        <v>18</v>
       </c>
       <c r="AC35" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AD35" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="n">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AF35" t="n">
-        <v>158</v>
+        <v>464.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>464.4</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>11.5</v>
+        <v>6.02</v>
       </c>
       <c r="AI35" t="n">
-        <v>6.02</v>
+        <v>33.6</v>
       </c>
       <c r="AJ35" t="n">
-        <v>33.6</v>
+        <v>24.1</v>
       </c>
       <c r="AK35" t="n">
-        <v>24.1</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AL35" t="n">
-        <v>92.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="AM35" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AN35" t="n">
-        <v>64.40000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="AO35" t="n">
-        <v>3.54</v>
+        <v>106.1</v>
       </c>
       <c r="AP35" t="n">
-        <v>106.1</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.25</v>
+        <v>141.2</v>
       </c>
       <c r="AR35" t="n">
-        <v>141.2</v>
+        <v>7.76</v>
       </c>
       <c r="AS35" t="n">
-        <v>7.76</v>
+        <v>129</v>
       </c>
       <c r="AT35" t="n">
-        <v>129</v>
+        <v>41.4</v>
       </c>
       <c r="AU35" t="n">
-        <v>41.4</v>
+        <v>4.62</v>
       </c>
       <c r="AV35" t="n">
-        <v>4.62</v>
+        <v>140</v>
       </c>
       <c r="AW35" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -5840,22 +5840,22 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -5885,91 +5885,91 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="AD36" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AE36" t="n">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="AF36" t="n">
-        <v>158</v>
+        <v>422.3</v>
       </c>
       <c r="AG36" t="n">
-        <v>422.3</v>
+        <v>1.57</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.57</v>
+        <v>7.3</v>
       </c>
       <c r="AI36" t="n">
-        <v>7.3</v>
+        <v>46.4</v>
       </c>
       <c r="AJ36" t="n">
-        <v>46.4</v>
+        <v>16.3</v>
       </c>
       <c r="AK36" t="n">
-        <v>16.3</v>
+        <v>109.1</v>
       </c>
       <c r="AL36" t="n">
-        <v>109.1</v>
+        <v>146</v>
       </c>
       <c r="AM36" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="n">
-        <v>77</v>
+        <v>3.6</v>
       </c>
       <c r="AO36" t="n">
-        <v>3.6</v>
+        <v>108</v>
       </c>
       <c r="AP36" t="n">
-        <v>108</v>
+        <v>2.3</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.3</v>
+        <v>147</v>
       </c>
       <c r="AR36" t="n">
-        <v>147</v>
+        <v>12.25</v>
       </c>
       <c r="AS36" t="n">
-        <v>12.25</v>
+        <v>220</v>
       </c>
       <c r="AT36" t="n">
-        <v>220</v>
+        <v>47.9</v>
       </c>
       <c r="AU36" t="n">
-        <v>47.9</v>
+        <v>4.59</v>
       </c>
       <c r="AV36" t="n">
-        <v>4.59</v>
+        <v>154</v>
       </c>
       <c r="AW36" t="n">
-        <v>154</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -5991,31 +5991,31 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -6027,100 +6027,100 @@
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>36.5</v>
+        <v>22</v>
       </c>
       <c r="AC37" t="n">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="AD37" t="n">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AF37" t="n">
-        <v>151</v>
+        <v>606</v>
       </c>
       <c r="AG37" t="n">
-        <v>606</v>
+        <v>1.31</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.31</v>
+        <v>17.87</v>
       </c>
       <c r="AI37" t="n">
-        <v>17.87</v>
+        <v>26.2</v>
       </c>
       <c r="AJ37" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="AK37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AL37" s="2" t="n">
-        <v>112.4898819129609</v>
+      <c r="AK37" s="2" t="n">
+        <v>112.4904557617934</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>75.2</v>
       </c>
       <c r="AM37" t="n">
-        <v>75.2</v>
+        <v>60.2</v>
       </c>
       <c r="AN37" t="n">
-        <v>60.2</v>
+        <v>3.72</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.72</v>
+        <v>97.3</v>
       </c>
       <c r="AP37" t="n">
-        <v>97.3</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.29</v>
+        <v>133.4</v>
       </c>
       <c r="AR37" t="n">
-        <v>133.4</v>
+        <v>11.46</v>
       </c>
       <c r="AS37" t="n">
-        <v>11.46</v>
+        <v>206</v>
       </c>
       <c r="AT37" t="n">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AU37" t="n">
-        <v>40</v>
+        <v>3.8</v>
       </c>
       <c r="AV37" t="n">
-        <v>3.8</v>
+        <v>122</v>
       </c>
       <c r="AW37" t="n">
-        <v>122</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -6148,19 +6148,19 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -6187,91 +6187,91 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB38" t="n">
-        <v>36.2</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="AD38" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AE38" t="n">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="AF38" t="n">
-        <v>119</v>
+        <v>236.21</v>
       </c>
       <c r="AG38" t="n">
-        <v>236.21</v>
+        <v>2.88</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.88</v>
+        <v>5.44</v>
       </c>
       <c r="AI38" t="n">
-        <v>5.44</v>
+        <v>40.52</v>
       </c>
       <c r="AJ38" t="n">
-        <v>40.52</v>
+        <v>11.43</v>
       </c>
       <c r="AK38" t="n">
-        <v>11.43</v>
+        <v>61.82</v>
       </c>
       <c r="AL38" t="n">
-        <v>61.82</v>
+        <v>69.17</v>
       </c>
       <c r="AM38" t="n">
-        <v>69.17</v>
+        <v>65.12</v>
       </c>
       <c r="AN38" t="n">
-        <v>65.12</v>
+        <v>4.04</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.04</v>
+        <v>105.27</v>
       </c>
       <c r="AP38" t="n">
-        <v>105.27</v>
+        <v>2.35</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.35</v>
+        <v>138.07</v>
       </c>
       <c r="AR38" t="n">
-        <v>138.07</v>
+        <v>9.18</v>
       </c>
       <c r="AS38" t="n">
-        <v>9.18</v>
+        <v>149</v>
       </c>
       <c r="AT38" t="n">
-        <v>149</v>
+        <v>38.8</v>
       </c>
       <c r="AU38" t="n">
-        <v>38.8</v>
+        <v>4.51</v>
       </c>
       <c r="AV38" t="n">
-        <v>4.51</v>
+        <v>123</v>
       </c>
       <c r="AW38" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -6302,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -6329,100 +6329,100 @@
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>86</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>306.7</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH39" t="n">
         <v>4</v>
       </c>
-      <c r="W39" t="n">
-        <v>2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>86</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>306.7</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AI39" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>20.6</v>
       </c>
       <c r="AK39" t="n">
-        <v>20.6</v>
+        <v>55.6</v>
       </c>
       <c r="AL39" t="n">
-        <v>55.6</v>
+        <v>94</v>
       </c>
       <c r="AM39" t="n">
-        <v>94</v>
+        <v>64.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>64.5</v>
+        <v>4.26</v>
       </c>
       <c r="AO39" t="n">
-        <v>4.26</v>
+        <v>95.3</v>
       </c>
       <c r="AP39" t="n">
-        <v>95.3</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.11</v>
+        <v>133.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>133.5</v>
+        <v>11.87</v>
       </c>
       <c r="AS39" t="n">
-        <v>11.87</v>
+        <v>455</v>
       </c>
       <c r="AT39" t="n">
-        <v>455</v>
+        <v>37.1</v>
       </c>
       <c r="AU39" t="n">
-        <v>37.1</v>
+        <v>3.78</v>
       </c>
       <c r="AV39" t="n">
-        <v>3.78</v>
+        <v>120</v>
       </c>
       <c r="AW39" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
@@ -6462,7 +6462,7 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -6480,100 +6480,100 @@
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>86</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>306.7</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH40" t="n">
         <v>4</v>
       </c>
-      <c r="W40" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>86</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>306.7</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AI40" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>20.6</v>
       </c>
       <c r="AK40" t="n">
-        <v>20.6</v>
+        <v>55.6</v>
       </c>
       <c r="AL40" t="n">
-        <v>55.6</v>
+        <v>94</v>
       </c>
       <c r="AM40" t="n">
-        <v>94</v>
+        <v>64.5</v>
       </c>
       <c r="AN40" t="n">
-        <v>64.5</v>
+        <v>4.26</v>
       </c>
       <c r="AO40" t="n">
-        <v>4.26</v>
+        <v>95.3</v>
       </c>
       <c r="AP40" t="n">
-        <v>95.3</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.11</v>
+        <v>133.5</v>
       </c>
       <c r="AR40" t="n">
-        <v>133.5</v>
+        <v>11.87</v>
       </c>
       <c r="AS40" t="n">
-        <v>11.87</v>
+        <v>455</v>
       </c>
       <c r="AT40" t="n">
-        <v>455</v>
+        <v>37.1</v>
       </c>
       <c r="AU40" t="n">
-        <v>37.1</v>
+        <v>3.78</v>
       </c>
       <c r="AV40" t="n">
-        <v>3.78</v>
+        <v>120</v>
       </c>
       <c r="AW40" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -6595,28 +6595,28 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -6631,100 +6631,100 @@
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
         <v>1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA41" t="n">
-        <v>2</v>
+        <v>36.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>36.5</v>
+        <v>22</v>
       </c>
       <c r="AC41" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="AD41" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="AE41" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="n">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="n">
-        <v>367</v>
+        <v>0.27</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.27</v>
+        <v>16.9</v>
       </c>
       <c r="AI41" t="n">
-        <v>16.9</v>
+        <v>33.1</v>
       </c>
       <c r="AJ41" t="n">
-        <v>33.1</v>
+        <v>24.1</v>
       </c>
       <c r="AK41" t="n">
-        <v>24.1</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="n">
-        <v>84</v>
+        <v>69.8</v>
       </c>
       <c r="AM41" t="n">
-        <v>69.8</v>
+        <v>52.7</v>
       </c>
       <c r="AN41" t="n">
-        <v>52.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO41" t="n">
-        <v>3.8</v>
+        <v>85.2</v>
       </c>
       <c r="AP41" t="n">
-        <v>85.2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.92</v>
+        <v>137.8</v>
       </c>
       <c r="AR41" t="n">
-        <v>137.8</v>
+        <v>16.26</v>
       </c>
       <c r="AS41" t="n">
-        <v>16.26</v>
+        <v>54</v>
       </c>
       <c r="AT41" t="n">
-        <v>54</v>
+        <v>45.8</v>
       </c>
       <c r="AU41" t="n">
-        <v>45.8</v>
+        <v>4.74</v>
       </c>
       <c r="AV41" t="n">
-        <v>4.74</v>
+        <v>136</v>
       </c>
       <c r="AW41" t="n">
-        <v>136</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -6770,16 +6770,16 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
@@ -6788,94 +6788,94 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>36.3</v>
       </c>
       <c r="AB42" t="n">
-        <v>36.3</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="AD42" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="AE42" t="n">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="AF42" t="n">
-        <v>113</v>
+        <v>207.4</v>
       </c>
       <c r="AG42" t="n">
-        <v>207.4</v>
+        <v>2.53</v>
       </c>
       <c r="AH42" t="n">
-        <v>2.53</v>
+        <v>4.32</v>
       </c>
       <c r="AI42" t="n">
-        <v>4.32</v>
+        <v>28</v>
       </c>
       <c r="AJ42" t="n">
-        <v>28</v>
+        <v>8.9</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.9</v>
+        <v>39</v>
       </c>
       <c r="AL42" t="n">
-        <v>39</v>
+        <v>57.3</v>
       </c>
       <c r="AM42" t="n">
-        <v>57.3</v>
+        <v>55.6</v>
       </c>
       <c r="AN42" t="n">
-        <v>55.6</v>
+        <v>2.81</v>
       </c>
       <c r="AO42" t="n">
-        <v>2.81</v>
+        <v>102.7</v>
       </c>
       <c r="AP42" t="n">
-        <v>102.7</v>
+        <v>1.96</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.96</v>
+        <v>146.2</v>
       </c>
       <c r="AR42" t="n">
-        <v>146.2</v>
+        <v>4.09</v>
       </c>
       <c r="AS42" t="n">
-        <v>4.09</v>
+        <v>51</v>
       </c>
       <c r="AT42" t="n">
-        <v>51</v>
+        <v>22.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>22.5</v>
+        <v>2.14</v>
       </c>
       <c r="AV42" t="n">
-        <v>2.14</v>
+        <v>71</v>
       </c>
       <c r="AW42" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -6906,16 +6906,16 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -6942,91 +6942,91 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>36.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>36.3</v>
+        <v>28</v>
       </c>
       <c r="AC43" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AD43" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AE43" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AF43" t="n">
-        <v>101</v>
+        <v>377.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>377.5</v>
+        <v>1.65</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.65</v>
+        <v>8.17</v>
       </c>
       <c r="AI43" t="n">
-        <v>8.17</v>
+        <v>24.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>24.5</v>
+        <v>18.3</v>
       </c>
       <c r="AK43" t="n">
-        <v>18.3</v>
+        <v>106.9</v>
       </c>
       <c r="AL43" t="n">
-        <v>106.9</v>
+        <v>326.4</v>
       </c>
       <c r="AM43" t="n">
-        <v>326.4</v>
+        <v>56</v>
       </c>
       <c r="AN43" t="n">
-        <v>56</v>
+        <v>4.44</v>
       </c>
       <c r="AO43" t="n">
-        <v>4.44</v>
+        <v>98.3</v>
       </c>
       <c r="AP43" t="n">
-        <v>98.3</v>
+        <v>2.06</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.06</v>
+        <v>129.7</v>
       </c>
       <c r="AR43" t="n">
-        <v>129.7</v>
+        <v>27.92</v>
       </c>
       <c r="AS43" t="n">
-        <v>27.92</v>
+        <v>216</v>
       </c>
       <c r="AT43" t="n">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="AU43" t="n">
-        <v>31</v>
+        <v>3.44</v>
       </c>
       <c r="AV43" t="n">
-        <v>3.44</v>
+        <v>105</v>
       </c>
       <c r="AW43" t="n">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -7047,29 +7047,29 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -7081,22 +7081,22 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -7105,79 +7105,79 @@
         <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB44" t="n">
-        <v>36.6</v>
+        <v>22</v>
       </c>
       <c r="AC44" t="n">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="AD44" t="n">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="AE44" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="AF44" t="n">
-        <v>129</v>
+        <v>158.3</v>
       </c>
       <c r="AG44" t="n">
-        <v>158.3</v>
+        <v>2.71</v>
       </c>
       <c r="AH44" t="n">
-        <v>2.71</v>
+        <v>4.22</v>
       </c>
       <c r="AI44" t="n">
-        <v>4.22</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AK44" t="n">
-        <v>28</v>
+        <v>72.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>72.5</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="n">
-        <v>79</v>
+        <v>63.6</v>
       </c>
       <c r="AN44" t="n">
-        <v>63.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO44" t="n">
-        <v>4.4</v>
+        <v>101.3</v>
       </c>
       <c r="AP44" t="n">
-        <v>101.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.36</v>
+        <v>131</v>
       </c>
       <c r="AR44" t="n">
-        <v>131</v>
+        <v>10.78</v>
       </c>
       <c r="AS44" t="n">
-        <v>10.78</v>
+        <v>200</v>
       </c>
       <c r="AT44" t="n">
-        <v>200</v>
+        <v>37.3</v>
       </c>
       <c r="AU44" t="n">
-        <v>37.3</v>
+        <v>4.05</v>
       </c>
       <c r="AV44" t="n">
-        <v>4.05</v>
+        <v>127</v>
       </c>
       <c r="AW44" t="n">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -7199,136 +7199,136 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AB45" t="n">
         <v>20</v>
       </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>36.5</v>
-      </c>
       <c r="AC45" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AD45" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AE45" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="AF45" t="n">
-        <v>114</v>
+        <v>482.3</v>
       </c>
       <c r="AG45" t="n">
-        <v>482.3</v>
+        <v>3.81</v>
       </c>
       <c r="AH45" t="n">
-        <v>3.81</v>
+        <v>5.27</v>
       </c>
       <c r="AI45" t="n">
-        <v>5.27</v>
+        <v>31.3</v>
       </c>
       <c r="AJ45" t="n">
-        <v>31.3</v>
+        <v>167</v>
       </c>
       <c r="AK45" t="n">
-        <v>167</v>
+        <v>54.7</v>
       </c>
       <c r="AL45" t="n">
-        <v>54.7</v>
+        <v>94</v>
       </c>
       <c r="AM45" t="n">
-        <v>94</v>
+        <v>81.3</v>
       </c>
       <c r="AN45" t="n">
-        <v>81.3</v>
+        <v>2.32</v>
       </c>
       <c r="AO45" t="n">
-        <v>2.32</v>
+        <v>107.9</v>
       </c>
       <c r="AP45" t="n">
-        <v>107.9</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.25</v>
+        <v>143.3</v>
       </c>
       <c r="AR45" t="n">
-        <v>143.3</v>
+        <v>4.85</v>
       </c>
       <c r="AS45" t="n">
-        <v>4.85</v>
+        <v>86</v>
       </c>
       <c r="AT45" t="n">
-        <v>86</v>
+        <v>17.1</v>
       </c>
       <c r="AU45" t="n">
-        <v>17.1</v>
+        <v>1.69</v>
       </c>
       <c r="AV45" t="n">
-        <v>1.69</v>
+        <v>53</v>
       </c>
       <c r="AW45" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -7359,10 +7359,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -7371,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -7386,19 +7386,19 @@
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -7410,76 +7410,76 @@
         <v>1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA46" t="n">
-        <v>2</v>
+        <v>36.7</v>
       </c>
       <c r="AB46" t="n">
-        <v>36.7</v>
+        <v>34</v>
       </c>
       <c r="AC46" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AD46" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AE46" t="n">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="AF46" t="n">
-        <v>148</v>
+        <v>375.3</v>
       </c>
       <c r="AG46" t="n">
-        <v>375.3</v>
+        <v>1.29</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.29</v>
+        <v>7.4</v>
       </c>
       <c r="AI46" t="n">
-        <v>7.4</v>
+        <v>34.2</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34.2</v>
+        <v>12.6</v>
       </c>
       <c r="AK46" t="n">
-        <v>12.6</v>
+        <v>64.2</v>
       </c>
       <c r="AL46" t="n">
-        <v>64.2</v>
+        <v>100</v>
       </c>
       <c r="AM46" t="n">
-        <v>100</v>
+        <v>58.2</v>
       </c>
       <c r="AN46" t="n">
-        <v>58.2</v>
+        <v>4.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>4.4</v>
+        <v>108</v>
       </c>
       <c r="AP46" t="n">
-        <v>108</v>
+        <v>2.49</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.49</v>
+        <v>143.1</v>
       </c>
       <c r="AR46" t="n">
-        <v>143.1</v>
+        <v>5.19</v>
       </c>
       <c r="AS46" t="n">
-        <v>5.19</v>
+        <v>305</v>
       </c>
       <c r="AT46" t="n">
-        <v>305</v>
+        <v>36.3</v>
       </c>
       <c r="AU46" t="n">
-        <v>36.3</v>
+        <v>4.04</v>
       </c>
       <c r="AV46" t="n">
-        <v>4.04</v>
+        <v>110</v>
       </c>
       <c r="AW46" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -7519,10 +7519,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -7546,91 +7546,91 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
         <v>2</v>
       </c>
       <c r="Z47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>1</v>
+        <v>36.3</v>
       </c>
       <c r="AB47" t="n">
-        <v>36.3</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="AD47" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="AE47" t="n">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AF47" t="n">
-        <v>109</v>
+        <v>581</v>
       </c>
       <c r="AG47" t="n">
-        <v>581</v>
+        <v>1.8</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.8</v>
+        <v>14.69</v>
       </c>
       <c r="AI47" t="n">
-        <v>14.69</v>
+        <v>39</v>
       </c>
       <c r="AJ47" t="n">
-        <v>39</v>
+        <v>27.2</v>
       </c>
       <c r="AK47" t="n">
-        <v>27.2</v>
+        <v>86</v>
       </c>
       <c r="AL47" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="AM47" t="n">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="AN47" t="n">
-        <v>62</v>
+        <v>4.1</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.1</v>
+        <v>99</v>
       </c>
       <c r="AP47" t="n">
-        <v>99</v>
+        <v>2.08</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.08</v>
+        <v>138</v>
       </c>
       <c r="AR47" t="n">
-        <v>138</v>
+        <v>8.1</v>
       </c>
       <c r="AS47" t="n">
-        <v>8.1</v>
+        <v>188</v>
       </c>
       <c r="AT47" t="n">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AU47" t="n">
-        <v>38</v>
+        <v>4.28</v>
       </c>
       <c r="AV47" t="n">
-        <v>4.28</v>
+        <v>119</v>
       </c>
       <c r="AW47" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -7661,16 +7661,16 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -7697,10 +7697,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
@@ -7709,79 +7709,79 @@
         <v>1</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB48" t="n">
-        <v>36.2</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AD48" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AE48" t="n">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="n">
-        <v>142</v>
-      </c>
-      <c r="AG48" t="n">
         <v>416</v>
       </c>
-      <c r="AH48" s="2" t="n">
-        <v>2.092667327771134</v>
+      <c r="AG48" s="2" t="n">
+        <v>2.095856707399981</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>12.1</v>
       </c>
       <c r="AI48" t="n">
-        <v>12.1</v>
+        <v>40.5</v>
       </c>
       <c r="AJ48" t="n">
-        <v>40.5</v>
+        <v>23.9</v>
       </c>
       <c r="AK48" t="n">
-        <v>23.9</v>
+        <v>123</v>
       </c>
       <c r="AL48" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AM48" t="n">
-        <v>105</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AN48" t="n">
-        <v>74.40000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.2</v>
+        <v>92.8</v>
       </c>
       <c r="AP48" t="n">
-        <v>92.8</v>
+        <v>2.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.22</v>
+        <v>130.1</v>
       </c>
       <c r="AR48" t="n">
-        <v>130.1</v>
+        <v>11.82</v>
       </c>
       <c r="AS48" t="n">
-        <v>11.82</v>
+        <v>89</v>
       </c>
       <c r="AT48" t="n">
-        <v>89</v>
+        <v>36.8</v>
       </c>
       <c r="AU48" t="n">
-        <v>36.8</v>
+        <v>4</v>
       </c>
       <c r="AV48" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="AW48" t="n">
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -7812,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -7824,10 +7824,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
@@ -7836,22 +7836,22 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -7860,79 +7860,79 @@
         <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC49" t="n">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="AD49" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="AE49" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AF49" t="n">
-        <v>93</v>
+        <v>350.3</v>
       </c>
       <c r="AG49" t="n">
-        <v>350.3</v>
+        <v>2.42</v>
       </c>
       <c r="AH49" t="n">
-        <v>2.42</v>
+        <v>6.12</v>
       </c>
       <c r="AI49" t="n">
-        <v>6.12</v>
+        <v>42.5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>42.5</v>
+        <v>27.9</v>
       </c>
       <c r="AK49" t="n">
-        <v>27.9</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="AL49" t="n">
-        <v>66.09999999999999</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="n">
-        <v>60</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AN49" t="n">
-        <v>64.09999999999999</v>
+        <v>3.09</v>
       </c>
       <c r="AO49" t="n">
-        <v>3.09</v>
+        <v>101.7</v>
       </c>
       <c r="AP49" t="n">
-        <v>101.7</v>
+        <v>2.04</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.04</v>
+        <v>138.8</v>
       </c>
       <c r="AR49" t="n">
-        <v>138.8</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AS49" t="n">
-        <v>8.529999999999999</v>
+        <v>128</v>
       </c>
       <c r="AT49" t="n">
-        <v>128</v>
+        <v>44.6</v>
       </c>
       <c r="AU49" t="n">
-        <v>44.6</v>
+        <v>4.86</v>
       </c>
       <c r="AV49" t="n">
-        <v>4.86</v>
+        <v>149</v>
       </c>
       <c r="AW49" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -7966,10 +7966,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -7999,16 +7999,16 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
         <v>1</v>
@@ -8017,73 +8017,73 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>36.4</v>
       </c>
       <c r="AB50" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AE50" t="n">
-        <v>98</v>
-      </c>
-      <c r="AF50" t="n">
         <v>150</v>
       </c>
-      <c r="AG50" s="2" t="n">
-        <v>389.4550231493092</v>
-      </c>
-      <c r="AH50" t="n">
+      <c r="AF50" s="2" t="n">
+        <v>389.5443734698073</v>
+      </c>
+      <c r="AG50" t="n">
         <v>2.83</v>
       </c>
-      <c r="AI50" s="2" t="n">
-        <v>8.747253180270292</v>
+      <c r="AH50" s="2" t="n">
+        <v>8.700956590230289</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>34.1</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="AK50" t="n">
         <v>4.9</v>
       </c>
-      <c r="AL50" s="2" t="n">
-        <v>89.70782406454043</v>
+      <c r="AK50" s="2" t="n">
+        <v>89.7373492549919</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>62.3</v>
       </c>
       <c r="AM50" t="n">
-        <v>62.3</v>
+        <v>61.1</v>
       </c>
       <c r="AN50" t="n">
-        <v>61.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO50" t="n">
-        <v>5.8</v>
+        <v>102</v>
       </c>
       <c r="AP50" t="n">
-        <v>102</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AR50" t="n">
         <v>148</v>
       </c>
+      <c r="AR50" s="2" t="n">
+        <v>9.365040489116424</v>
+      </c>
       <c r="AS50" s="2" t="n">
-        <v>9.36286519431367</v>
+        <v>212.3391782192767</v>
       </c>
       <c r="AT50" s="2" t="n">
-        <v>212.3405749804296</v>
+        <v>37.81756226031428</v>
       </c>
       <c r="AU50" s="2" t="n">
-        <v>36.55544823132882</v>
+        <v>4.232423503382956</v>
       </c>
       <c r="AV50" s="2" t="n">
-        <v>4.117038980657274</v>
-      </c>
-      <c r="AW50" s="2" t="n">
-        <v>113.5223477212706</v>
+        <v>117.6807950210639</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -8117,10 +8117,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -8129,10 +8129,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -8150,10 +8150,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -8162,79 +8162,79 @@
         <v>1</v>
       </c>
       <c r="Y51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>36.8</v>
       </c>
       <c r="AB51" t="n">
-        <v>36.8</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AE51" t="n">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AF51" t="n">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="AG51" t="n">
-        <v>433</v>
+        <v>1.47</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.47</v>
+        <v>4.65</v>
       </c>
       <c r="AI51" t="n">
-        <v>4.65</v>
+        <v>37.4</v>
       </c>
       <c r="AJ51" t="n">
-        <v>37.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK51" t="n">
-        <v>9.6</v>
+        <v>68.2</v>
       </c>
       <c r="AL51" t="n">
-        <v>68.2</v>
+        <v>109</v>
       </c>
       <c r="AM51" t="n">
-        <v>109</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AN51" t="n">
-        <v>72.59999999999999</v>
+        <v>3.94</v>
       </c>
       <c r="AO51" t="n">
-        <v>3.94</v>
+        <v>103.9</v>
       </c>
       <c r="AP51" t="n">
-        <v>103.9</v>
+        <v>2.07</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.07</v>
+        <v>138.7</v>
       </c>
       <c r="AR51" t="n">
-        <v>138.7</v>
+        <v>10.91</v>
       </c>
       <c r="AS51" t="n">
-        <v>10.91</v>
+        <v>292</v>
       </c>
       <c r="AT51" t="n">
-        <v>292</v>
+        <v>38.8</v>
       </c>
       <c r="AU51" t="n">
-        <v>38.8</v>
+        <v>3.95</v>
       </c>
       <c r="AV51" t="n">
-        <v>3.95</v>
+        <v>129</v>
       </c>
       <c r="AW51" t="n">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -8256,25 +8256,25 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -8283,10 +8283,10 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -8301,10 +8301,10 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -8313,79 +8313,79 @@
         <v>1</v>
       </c>
       <c r="Y52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB52" t="n">
-        <v>36.2</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="AD52" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="n">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AF52" t="n">
-        <v>181</v>
+        <v>557.72</v>
       </c>
       <c r="AG52" t="n">
-        <v>557.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.9399999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="AI52" t="n">
-        <v>11.05</v>
+        <v>42.46</v>
       </c>
       <c r="AJ52" t="n">
-        <v>42.46</v>
+        <v>18.76</v>
       </c>
       <c r="AK52" t="n">
-        <v>18.76</v>
+        <v>87.53</v>
       </c>
       <c r="AL52" t="n">
-        <v>87.53</v>
+        <v>52.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>52.5</v>
+        <v>74.16</v>
       </c>
       <c r="AN52" t="n">
-        <v>74.16</v>
+        <v>4.66</v>
       </c>
       <c r="AO52" t="n">
-        <v>4.66</v>
+        <v>110.47</v>
       </c>
       <c r="AP52" t="n">
-        <v>110.47</v>
+        <v>2.36</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.36</v>
+        <v>140.39</v>
       </c>
       <c r="AR52" t="n">
-        <v>140.39</v>
+        <v>6.34</v>
       </c>
       <c r="AS52" t="n">
-        <v>6.34</v>
+        <v>123</v>
       </c>
       <c r="AT52" t="n">
-        <v>123</v>
+        <v>33.7</v>
       </c>
       <c r="AU52" t="n">
-        <v>33.7</v>
+        <v>3.77</v>
       </c>
       <c r="AV52" t="n">
-        <v>3.77</v>
+        <v>110</v>
       </c>
       <c r="AW52" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -8407,13 +8407,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -8437,10 +8437,10 @@
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
@@ -8452,10 +8452,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
@@ -8464,79 +8464,79 @@
         <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>36.4</v>
       </c>
       <c r="AB53" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="AD53" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AE53" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="AF53" t="n">
-        <v>107</v>
+        <v>336.1</v>
       </c>
       <c r="AG53" t="n">
-        <v>336.1</v>
+        <v>0.97</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.97</v>
+        <v>5.49</v>
       </c>
       <c r="AI53" t="n">
-        <v>5.49</v>
+        <v>39</v>
       </c>
       <c r="AJ53" t="n">
-        <v>39</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK53" t="n">
-        <v>8.800000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="AL53" t="n">
-        <v>60.9</v>
+        <v>63.4</v>
       </c>
       <c r="AM53" t="n">
-        <v>63.4</v>
+        <v>65.8</v>
       </c>
       <c r="AN53" t="n">
-        <v>65.8</v>
+        <v>4.03</v>
       </c>
       <c r="AO53" t="n">
-        <v>4.03</v>
+        <v>106.3</v>
       </c>
       <c r="AP53" t="n">
-        <v>106.3</v>
+        <v>2.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.3</v>
+        <v>140.7</v>
       </c>
       <c r="AR53" t="n">
-        <v>140.7</v>
+        <v>5.11</v>
       </c>
       <c r="AS53" t="n">
-        <v>5.11</v>
+        <v>216</v>
       </c>
       <c r="AT53" t="n">
-        <v>216</v>
+        <v>34.6</v>
       </c>
       <c r="AU53" t="n">
-        <v>34.6</v>
+        <v>3.61</v>
       </c>
       <c r="AV53" t="n">
-        <v>3.61</v>
+        <v>115</v>
       </c>
       <c r="AW53" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -8570,10 +8570,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -8603,16 +8603,16 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
         <v>1</v>
@@ -8621,73 +8621,73 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB54" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD54" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="n">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="AF54" t="n">
-        <v>169</v>
-      </c>
-      <c r="AG54" t="n">
         <v>479.6</v>
       </c>
-      <c r="AH54" s="2" t="n">
-        <v>1.863500039791137</v>
-      </c>
-      <c r="AI54" t="n">
+      <c r="AG54" s="2" t="n">
+        <v>1.863665316231538</v>
+      </c>
+      <c r="AH54" t="n">
         <v>6.3</v>
       </c>
+      <c r="AI54" s="2" t="n">
+        <v>39.46015266550866</v>
+      </c>
       <c r="AJ54" s="2" t="n">
-        <v>39.60670076579244</v>
-      </c>
-      <c r="AK54" s="2" t="n">
-        <v>18.86541592201158</v>
-      </c>
-      <c r="AL54" t="n">
+        <v>18.86529609963623</v>
+      </c>
+      <c r="AK54" t="n">
         <v>103.5</v>
       </c>
+      <c r="AL54" s="2" t="n">
+        <v>106.0300615030953</v>
+      </c>
       <c r="AM54" s="2" t="n">
-        <v>106.0297368623512</v>
-      </c>
-      <c r="AN54" s="2" t="n">
-        <v>71.46647642494948</v>
+        <v>71.57615303238038</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>2.89</v>
       </c>
       <c r="AO54" t="n">
-        <v>2.89</v>
+        <v>99.3</v>
       </c>
       <c r="AP54" t="n">
-        <v>99.3</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.13</v>
+        <v>146.7</v>
       </c>
       <c r="AR54" t="n">
-        <v>146.7</v>
+        <v>13.87</v>
       </c>
       <c r="AS54" t="n">
-        <v>13.87</v>
+        <v>189</v>
       </c>
       <c r="AT54" t="n">
-        <v>189</v>
+        <v>40.1</v>
       </c>
       <c r="AU54" t="n">
-        <v>40.1</v>
+        <v>4.68</v>
       </c>
       <c r="AV54" t="n">
-        <v>4.68</v>
+        <v>129</v>
       </c>
       <c r="AW54" t="n">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -8718,10 +8718,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -8733,10 +8733,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -8754,91 +8754,91 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
         <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC55" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AD55" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AE55" t="n">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="AF55" t="n">
-        <v>122</v>
+        <v>190.8</v>
       </c>
       <c r="AG55" t="n">
-        <v>190.8</v>
+        <v>1.67</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.67</v>
+        <v>3.97</v>
       </c>
       <c r="AI55" t="n">
-        <v>3.97</v>
+        <v>25.6</v>
       </c>
       <c r="AJ55" t="n">
-        <v>25.6</v>
+        <v>5.6</v>
       </c>
       <c r="AK55" t="n">
-        <v>5.6</v>
+        <v>41.6</v>
       </c>
       <c r="AL55" t="n">
-        <v>41.6</v>
+        <v>99</v>
       </c>
       <c r="AM55" t="n">
-        <v>99</v>
+        <v>61.8</v>
       </c>
       <c r="AN55" t="n">
-        <v>61.8</v>
+        <v>3.31</v>
       </c>
       <c r="AO55" t="n">
-        <v>3.31</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AP55" t="n">
-        <v>92.59999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.92</v>
+        <v>132.1</v>
       </c>
       <c r="AR55" t="n">
-        <v>132.1</v>
+        <v>11.03</v>
       </c>
       <c r="AS55" t="n">
-        <v>11.03</v>
+        <v>302</v>
       </c>
       <c r="AT55" t="n">
-        <v>302</v>
+        <v>22.8</v>
       </c>
       <c r="AU55" t="n">
-        <v>22.8</v>
+        <v>2.41</v>
       </c>
       <c r="AV55" t="n">
-        <v>2.41</v>
+        <v>75</v>
       </c>
       <c r="AW55" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
@@ -8881,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -8899,97 +8899,97 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>36.5</v>
+        <v>16</v>
       </c>
       <c r="AC56" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AE56" t="n">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="AF56" t="n">
-        <v>131</v>
+        <v>348.1</v>
       </c>
       <c r="AG56" t="n">
-        <v>348.1</v>
+        <v>1.56</v>
       </c>
       <c r="AH56" t="n">
-        <v>1.56</v>
+        <v>13.28</v>
       </c>
       <c r="AI56" t="n">
-        <v>13.28</v>
+        <v>38.6</v>
       </c>
       <c r="AJ56" t="n">
-        <v>38.6</v>
+        <v>21.1</v>
       </c>
       <c r="AK56" t="n">
-        <v>21.1</v>
+        <v>190.7</v>
       </c>
       <c r="AL56" t="n">
-        <v>190.7</v>
+        <v>110</v>
       </c>
       <c r="AM56" t="n">
-        <v>110</v>
+        <v>67.7</v>
       </c>
       <c r="AN56" t="n">
-        <v>67.7</v>
+        <v>5.25</v>
       </c>
       <c r="AO56" t="n">
-        <v>5.25</v>
+        <v>101.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>101.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.73</v>
+        <v>137.74</v>
       </c>
       <c r="AR56" t="n">
-        <v>137.74</v>
+        <v>16.73</v>
       </c>
       <c r="AS56" t="n">
-        <v>16.73</v>
+        <v>189</v>
       </c>
       <c r="AT56" t="n">
-        <v>189</v>
+        <v>34.5</v>
       </c>
       <c r="AU56" t="n">
-        <v>34.5</v>
+        <v>3.92</v>
       </c>
       <c r="AV56" t="n">
-        <v>3.92</v>
+        <v>113</v>
       </c>
       <c r="AW56" t="n">
-        <v>113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -9011,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -9023,19 +9023,19 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -9056,91 +9056,91 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y57" t="n">
         <v>1</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA57" t="n">
-        <v>2</v>
+        <v>36.4</v>
       </c>
       <c r="AB57" t="n">
-        <v>36.4</v>
+        <v>22</v>
       </c>
       <c r="AC57" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AE57" t="n">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="AF57" t="n">
-        <v>145</v>
+        <v>503.06</v>
       </c>
       <c r="AG57" t="n">
-        <v>503.06</v>
+        <v>1.16</v>
       </c>
       <c r="AH57" t="n">
-        <v>1.16</v>
+        <v>33.18</v>
       </c>
       <c r="AI57" t="n">
-        <v>33.18</v>
+        <v>36.26</v>
       </c>
       <c r="AJ57" t="n">
-        <v>36.26</v>
-      </c>
-      <c r="AK57" t="n">
         <v>12.75</v>
       </c>
-      <c r="AL57" s="2" t="n">
-        <v>102.0322660374113</v>
+      <c r="AK57" s="2" t="n">
+        <v>102.0351814771433</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>36.52</v>
       </c>
       <c r="AM57" t="n">
-        <v>36.52</v>
+        <v>63.99</v>
       </c>
       <c r="AN57" t="n">
-        <v>63.99</v>
+        <v>4.04</v>
       </c>
       <c r="AO57" t="n">
-        <v>4.04</v>
+        <v>101.89</v>
       </c>
       <c r="AP57" t="n">
-        <v>101.89</v>
+        <v>2.16</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.16</v>
+        <v>137.96</v>
       </c>
       <c r="AR57" t="n">
-        <v>137.96</v>
+        <v>15.59</v>
       </c>
       <c r="AS57" t="n">
-        <v>15.59</v>
+        <v>252</v>
       </c>
       <c r="AT57" t="n">
-        <v>252</v>
+        <v>24.2</v>
       </c>
       <c r="AU57" t="n">
-        <v>24.2</v>
+        <v>2.74</v>
       </c>
       <c r="AV57" t="n">
-        <v>2.74</v>
+        <v>78</v>
       </c>
       <c r="AW57" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -9162,22 +9162,22 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -9207,13 +9207,13 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
         <v>1</v>
@@ -9222,76 +9222,76 @@
         <v>1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA58" t="n">
-        <v>2</v>
+        <v>36.4</v>
       </c>
       <c r="AB58" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="AC58" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AD58" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AE58" t="n">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AF58" t="n">
-        <v>147</v>
+        <v>384.7</v>
       </c>
       <c r="AG58" t="n">
-        <v>384.7</v>
+        <v>1.74</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.74</v>
+        <v>5.14</v>
       </c>
       <c r="AI58" t="n">
-        <v>5.14</v>
+        <v>46.9</v>
       </c>
       <c r="AJ58" t="n">
-        <v>46.9</v>
+        <v>7.9</v>
       </c>
       <c r="AK58" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AL58" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="AM58" s="2" t="n">
-        <v>101.4874892884058</v>
+      <c r="AL58" s="2" t="n">
+        <v>101.4792193991872</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>85.2</v>
       </c>
       <c r="AN58" t="n">
-        <v>85.2</v>
+        <v>4.39</v>
       </c>
       <c r="AO58" t="n">
-        <v>4.39</v>
+        <v>104.4</v>
       </c>
       <c r="AP58" t="n">
-        <v>104.4</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.13</v>
+        <v>139.6</v>
       </c>
       <c r="AR58" t="n">
-        <v>139.6</v>
+        <v>6.32</v>
       </c>
       <c r="AS58" t="n">
-        <v>6.32</v>
+        <v>16.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>16.4</v>
+        <v>48.4</v>
       </c>
       <c r="AU58" t="n">
-        <v>48.4</v>
+        <v>5.08</v>
       </c>
       <c r="AV58" t="n">
-        <v>5.08</v>
+        <v>154</v>
       </c>
       <c r="AW58" t="n">
-        <v>154</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -9313,10 +9313,10 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -9331,13 +9331,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>1</v>
@@ -9346,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -9358,16 +9358,16 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
         <v>1</v>
@@ -9376,73 +9376,73 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>36.7</v>
       </c>
       <c r="AB59" t="n">
-        <v>36.7</v>
+        <v>22</v>
       </c>
       <c r="AC59" t="n">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="AD59" t="n">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AE59" t="n">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF59" t="n">
-        <v>112</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="n">
-        <v>416</v>
+        <v>1.85</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.85</v>
+        <v>6.2</v>
       </c>
       <c r="AI59" t="n">
-        <v>6.2</v>
+        <v>40.8</v>
       </c>
       <c r="AJ59" t="n">
-        <v>40.8</v>
+        <v>20.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>20.5</v>
+        <v>119</v>
       </c>
       <c r="AL59" t="n">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="AM59" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AN59" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="AO59" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="AP59" t="n">
-        <v>99</v>
+        <v>2.32</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.32</v>
+        <v>133</v>
       </c>
       <c r="AR59" t="n">
-        <v>133</v>
+        <v>4.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT59" t="n">
         <v>190</v>
       </c>
-      <c r="AU59" s="2" t="n">
-        <v>44.51995100845375</v>
+      <c r="AT59" s="2" t="n">
+        <v>44.51580906779624</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>4.54</v>
       </c>
       <c r="AV59" t="n">
-        <v>4.54</v>
+        <v>145</v>
       </c>
       <c r="AW59" t="n">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -9464,10 +9464,10 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -9488,16 +9488,16 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -9509,10 +9509,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
@@ -9521,79 +9521,79 @@
         <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60" t="n">
         <v>2</v>
       </c>
       <c r="AA60" t="n">
-        <v>2</v>
+        <v>36.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC60" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AD60" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="AE60" t="n">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="AF60" t="n">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="AG60" t="n">
-        <v>234</v>
+        <v>1.05</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.05</v>
+        <v>5.26</v>
       </c>
       <c r="AI60" t="n">
-        <v>5.26</v>
+        <v>34.3</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34.3</v>
+        <v>5.04</v>
       </c>
       <c r="AK60" t="n">
-        <v>5.04</v>
+        <v>51.8</v>
       </c>
       <c r="AL60" t="n">
-        <v>51.8</v>
+        <v>153.1</v>
       </c>
       <c r="AM60" t="n">
-        <v>153.1</v>
+        <v>64.98</v>
       </c>
       <c r="AN60" t="n">
-        <v>64.98</v>
+        <v>3.6</v>
       </c>
       <c r="AO60" t="n">
-        <v>3.6</v>
+        <v>104</v>
       </c>
       <c r="AP60" t="n">
-        <v>104</v>
+        <v>2.07</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.07</v>
+        <v>140</v>
       </c>
       <c r="AR60" t="n">
-        <v>140</v>
+        <v>11.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>11.25</v>
+        <v>438</v>
       </c>
       <c r="AT60" t="n">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="AU60" t="n">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="AV60" t="n">
-        <v>3.2</v>
+        <v>94</v>
       </c>
       <c r="AW60" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
